--- a/medicine/Enfance/Rue_du_monde/Rue_du_monde.xlsx
+++ b/medicine/Enfance/Rue_du_monde/Rue_du_monde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rue du monde est une maison d'édition française de littérature de jeunesse.
 </t>
@@ -511,10 +523,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rue du monde a été créée en novembre 1996 par Alain Serres[1], auteur pour la jeunesse, grâce à un millier de souscriptions.
-Elle appartient à la société Rue de l'Édition[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rue du monde a été créée en novembre 1996 par Alain Serres, auteur pour la jeunesse, grâce à un millier de souscriptions.
+Elle appartient à la société Rue de l'Édition.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Projet éditorial</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rue du monde conçoit des livres pour « interroger et imaginer le monde ». Sa démarche originale associe regards citoyens, ouverture aux autres cultures et tremplin à l'imaginaire. Ses ouvrages s'adressent à l'intelligence, à la sensibilité et à l'esprit critique des enfants. Selon Alain Serres, il s'agit de leur « ouvrir les yeux sur notre monde sans les effrayer avec celui qu'on leur laisse[3] », pour ne pas en rester au « simple constat dramatique de la planète », et les encourager aussi à imaginer dès aujourd'hui un autre monde. Les albums de Rue du Monde, soigneusement édités, laissent une grande place à des illustrations originales et colorées, ouvertes au regard créatif du jeune lecteur. Rue du monde propose également des expositions conçues à partir de ses livres.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rue du monde conçoit des livres pour « interroger et imaginer le monde ». Sa démarche originale associe regards citoyens, ouverture aux autres cultures et tremplin à l'imaginaire. Ses ouvrages s'adressent à l'intelligence, à la sensibilité et à l'esprit critique des enfants. Selon Alain Serres, il s'agit de leur « ouvrir les yeux sur notre monde sans les effrayer avec celui qu'on leur laisse », pour ne pas en rester au « simple constat dramatique de la planète », et les encourager aussi à imaginer dès aujourd'hui un autre monde. Les albums de Rue du Monde, soigneusement édités, laissent une grande place à des illustrations originales et colorées, ouvertes au regard créatif du jeune lecteur. Rue du monde propose également des expositions conçues à partir de ses livres.
 Totalement indépendante financièrement, Rue du monde est parvenue à asseoir sa fonction dans le paysage éditorial mais aussi dans la vie sociale. 
-Début 2011, Rue du monde a pris position sur la manière dont est appréhendée l'édition jeunesse dans les médias, à travers une lettre ouverte « à l'attention des critiques  littéraires et de tous ceux qui n'ont pas encore eu la chance de rencontrer un bon livre jeunesse »[4]. Le contenu de ce message a reçu le soutien de nombreux acteurs du secteur, approuvant notamment l'idée d'organiser une table ronde sur le sujet[5],[6].
+Début 2011, Rue du monde a pris position sur la manière dont est appréhendée l'édition jeunesse dans les médias, à travers une lettre ouverte « à l'attention des critiques  littéraires et de tous ceux qui n'ont pas encore eu la chance de rencontrer un bon livre jeunesse ». Le contenu de ce message a reçu le soutien de nombreux acteurs du secteur, approuvant notamment l'idée d'organiser une table ronde sur le sujet,.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Collaborateurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis ses débuts, Rue du monde fait travailler, tant pour le texte que pour les illustrations, des créateurs déjà reconnus et de jeunes talents. Elle collabore régulièrement avec Bernard Chambaz, Laurent Corvaisier, Didier Daeninckx, Bernard Épin, Aurélia Fronty, Judith Gueyfier, Jean-Marie Henry, Martin Jarrie, Nathalie Novi, Pef, Clotilde Perrin, François Place, Lucile Placin, Karim Ressouni-Demigneux, Olivier Tallec, Zaü…
 </t>
@@ -607,7 +625,9 @@
           <t>Catalogue</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Rue du monde publie une trentaine d'ouvrages par an. Son catalogue compte plus de 400 titres, pour les lecteurs de 18 mois à 15 ans — voire beaucoup plus pour certains ouvrages plébiscités par les adultes.
 Y figurent :
@@ -655,7 +675,9 @@
           <t>Rendez-vous annuels</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Rue du monde s'associe chaque année au Printemps des Poètes et à l'opération « L'été des bouquins solidaires » en partenariat avec le Secours populaire. Elle est présente sur de nombreux salons en France (Montreuil, Aubagne, Rouen…) et à l'étranger (Bologne, Francfort…).
 </t>
@@ -686,7 +708,9 @@
           <t>Quelques récompenses</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Prix Sorcières Documentaire 1999 pour Pef, Zappe la guerre
 Prix Sorcières 2003 pour Dominique Sampiero, illustré par Monike Czarnecki, P’tite mère
